--- a/eng/bilagor/Applicationdatasheet.xlsx
+++ b/eng/bilagor/Applicationdatasheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">Ekhagastiftelsen </t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Amount applied for at Ekhagastiftelsen:</t>
-  </si>
-  <si>
-    <t>Project start date:</t>
-  </si>
-  <si>
-    <t>Project end date:</t>
   </si>
   <si>
     <t>Have applications been sent in previously:</t>
@@ -123,6 +117,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> has previoiusly applied to Ekhagastiftelsen</t>
     </r>
@@ -134,9 +129,6 @@
     <t>official applicant</t>
   </si>
   <si>
-    <t>L (agriculture) or M (medicine)</t>
-  </si>
-  <si>
     <t>Name and contact information to the</t>
   </si>
   <si>
@@ -156,13 +148,22 @@
   </si>
   <si>
     <t>Project title - translation into swedish</t>
+  </si>
+  <si>
+    <t>Project start date (time funded by Ekhagastiftelsen):</t>
+  </si>
+  <si>
+    <t>Project end date (time funded by Ekhagastiftelsen):</t>
+  </si>
+  <si>
+    <t>not used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,14 +171,17 @@
     <font>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -187,6 +191,11 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -356,7 +365,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,15 +373,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -386,22 +409,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,13 +696,13 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,288 +716,290 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
+      <c r="C4" s="10"/>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7" t="s">
-        <v>29</v>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
+      <c r="C15" s="10"/>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="32" spans="1:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
